--- a/scheduler.xlsx
+++ b/scheduler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_d_c\Documents\Programming - new pc\Code\Ritza\32. Bryntum - Excel to Bryntum Scheduler migration\excel-to-bryntum-scheduler-server-starter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A674610-519D-47B6-ABCC-CC94C1268497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE1F643-19F6-4358-B970-0E0000D4FEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1301,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
